--- a/QA/Part III/Exam/Problem 1. Performance Testing/Report.xlsx
+++ b/QA/Part III/Exam/Problem 1. Performance Testing/Report.xlsx
@@ -720,7 +720,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.1961508974108825E-17"/>
+                  <c:x val="-3.1961508974108856E-17"/>
                   <c:y val="-1.9157088122605363E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -731,7 +731,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-1.5325670498084297E-2"/>
+                  <c:y val="-1.5325670498084301E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -846,7 +846,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="2.6819923371647517E-2"/>
+                  <c:y val="2.6819923371647521E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -855,7 +855,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.7433751743375183E-3"/>
+                  <c:x val="1.7433751743375185E-3"/>
                   <c:y val="1.1494252873563218E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -933,24 +933,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78062336"/>
-        <c:axId val="78063872"/>
+        <c:axId val="77210368"/>
+        <c:axId val="77211904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78062336"/>
+        <c:axId val="77210368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78063872"/>
+        <c:crossAx val="77211904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78063872"/>
+        <c:axId val="77211904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +958,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78062336"/>
+        <c:crossAx val="77210368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -971,7 +971,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1493,7 +1493,7 @@
   <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
